--- a/Summary wing excel files/Field 13 vs 18 Landmark comparison graph.xlsx
+++ b/Summary wing excel files/Field 13 vs 18 Landmark comparison graph.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgc\Dropbox\Wing project\Summary wing excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmc04\Documents\GitHub\wingproj\Summary wing excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11385" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11385" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
   <si>
     <t>13 landmark</t>
   </si>
@@ -82,6 +83,9 @@
   </si>
   <si>
     <t>Mata Atlantica</t>
+  </si>
+  <si>
+    <t>18 landmark</t>
   </si>
 </sst>
 </file>
@@ -4557,13 +4561,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4577,7 +4581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4591,7 +4595,7 @@
         <v>0.19496659</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -4605,7 +4609,7 @@
         <v>0.19068710999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -4619,7 +4623,7 @@
         <v>0.17808113</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -4633,7 +4637,7 @@
         <v>0.18689708999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -4647,7 +4651,7 @@
         <v>0.16795715999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -4661,7 +4665,7 @@
         <v>0.16849536000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -4675,9 +4679,9 @@
         <v>9.3830570000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -4689,7 +4693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>1</v>
       </c>
@@ -4703,7 +4707,7 @@
         <v>0.1798006</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>2</v>
       </c>
@@ -4717,7 +4721,7 @@
         <v>0.17552880000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>3</v>
       </c>
@@ -4731,7 +4735,7 @@
         <v>0.1484538</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -4745,7 +4749,7 @@
         <v>0.16155720000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>5</v>
       </c>
@@ -4759,7 +4763,7 @@
         <v>0.14916969999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>6</v>
       </c>
@@ -4773,7 +4777,7 @@
         <v>0.1369717</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>7</v>
       </c>
@@ -4795,20 +4799,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C1" s="19" t="s">
         <v>11</v>
       </c>
@@ -4827,7 +4843,7 @@
       </c>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="3:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="20"/>
       <c r="D2" s="21"/>
       <c r="E2" s="23"/>
@@ -4844,7 +4860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
@@ -4867,7 +4883,7 @@
         <v>0.1798006</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" s="18"/>
       <c r="D4" s="8" t="s">
         <v>2</v>
@@ -4888,7 +4904,7 @@
         <v>0.17552880000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" s="18"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
@@ -4909,7 +4925,7 @@
         <v>0.1484538</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="18"/>
       <c r="D6" s="8" t="s">
         <v>4</v>
@@ -4930,7 +4946,7 @@
         <v>0.16155720000000001</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="18" t="s">
         <v>17</v>
       </c>
@@ -4953,7 +4969,7 @@
         <v>0.14916969999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="18"/>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -4974,7 +4990,7 @@
         <v>0.1369717</v>
       </c>
     </row>
-    <row r="9" spans="3:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
@@ -4997,13 +5013,13 @@
         <v>0.1129154</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E10">
         <f>SUM(E3:E9)</f>
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>0</v>
       </c>
@@ -5017,7 +5033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>1</v>
       </c>
@@ -5031,7 +5047,7 @@
         <v>0.19496659</v>
       </c>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>2</v>
       </c>
@@ -5045,7 +5061,7 @@
         <v>0.19068710999999999</v>
       </c>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>3</v>
       </c>
@@ -5059,7 +5075,7 @@
         <v>0.17808113</v>
       </c>
     </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>4</v>
       </c>
@@ -5073,7 +5089,7 @@
         <v>0.18689708999999999</v>
       </c>
     </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>5</v>
       </c>
@@ -5087,7 +5103,7 @@
         <v>0.16795715999999999</v>
       </c>
     </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>6</v>
       </c>
@@ -5101,7 +5117,7 @@
         <v>0.16849536000000001</v>
       </c>
     </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>7</v>
       </c>
@@ -5115,7 +5131,7 @@
         <v>9.3830570000000002E-2</v>
       </c>
     </row>
-    <row r="46" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>0</v>
       </c>
@@ -5129,7 +5145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>1</v>
       </c>
@@ -5143,7 +5159,7 @@
         <v>0.1798006</v>
       </c>
     </row>
-    <row r="48" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>2</v>
       </c>
@@ -5157,7 +5173,7 @@
         <v>0.17552880000000001</v>
       </c>
     </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
         <v>3</v>
       </c>
@@ -5171,7 +5187,7 @@
         <v>0.1484538</v>
       </c>
     </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
         <v>4</v>
       </c>
@@ -5185,7 +5201,7 @@
         <v>0.16155720000000001</v>
       </c>
     </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
         <v>5</v>
       </c>
@@ -5199,7 +5215,7 @@
         <v>0.14916969999999999</v>
       </c>
     </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>6</v>
       </c>
@@ -5213,7 +5229,7 @@
         <v>0.1369717</v>
       </c>
     </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
         <v>7</v>
       </c>

--- a/Summary wing excel files/Field 13 vs 18 Landmark comparison graph.xlsx
+++ b/Summary wing excel files/Field 13 vs 18 Landmark comparison graph.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmc04\Documents\GitHub\wingproj\Summary wing excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgc\Dropbox\Wing project\Summary wing excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11385" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11385" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t>13 landmark</t>
   </si>
@@ -83,9 +82,6 @@
   </si>
   <si>
     <t>Mata Atlantica</t>
-  </si>
-  <si>
-    <t>18 landmark</t>
   </si>
 </sst>
 </file>
@@ -4561,13 +4557,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4581,7 +4577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4595,7 +4591,7 @@
         <v>0.19496659</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -4609,7 +4605,7 @@
         <v>0.19068710999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -4623,7 +4619,7 @@
         <v>0.17808113</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -4637,7 +4633,7 @@
         <v>0.18689708999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -4651,7 +4647,7 @@
         <v>0.16795715999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -4665,7 +4661,7 @@
         <v>0.16849536000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -4679,9 +4675,9 @@
         <v>9.3830570000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -4693,7 +4689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>1</v>
       </c>
@@ -4707,7 +4703,7 @@
         <v>0.1798006</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>2</v>
       </c>
@@ -4721,7 +4717,7 @@
         <v>0.17552880000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>3</v>
       </c>
@@ -4735,7 +4731,7 @@
         <v>0.1484538</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -4749,7 +4745,7 @@
         <v>0.16155720000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>5</v>
       </c>
@@ -4763,7 +4759,7 @@
         <v>0.14916969999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>6</v>
       </c>
@@ -4777,7 +4773,7 @@
         <v>0.1369717</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>7</v>
       </c>
@@ -4799,32 +4795,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C1" s="19" t="s">
         <v>11</v>
       </c>
@@ -4843,7 +4827,7 @@
       </c>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C2" s="20"/>
       <c r="D2" s="21"/>
       <c r="E2" s="23"/>
@@ -4860,7 +4844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
@@ -4883,7 +4867,7 @@
         <v>0.1798006</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C4" s="18"/>
       <c r="D4" s="8" t="s">
         <v>2</v>
@@ -4904,7 +4888,7 @@
         <v>0.17552880000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C5" s="18"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
@@ -4925,7 +4909,7 @@
         <v>0.1484538</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C6" s="18"/>
       <c r="D6" s="8" t="s">
         <v>4</v>
@@ -4946,7 +4930,7 @@
         <v>0.16155720000000001</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C7" s="18" t="s">
         <v>17</v>
       </c>
@@ -4969,7 +4953,7 @@
         <v>0.14916969999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C8" s="18"/>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -4990,7 +4974,7 @@
         <v>0.1369717</v>
       </c>
     </row>
-    <row r="9" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
@@ -5013,13 +4997,13 @@
         <v>0.1129154</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.45">
       <c r="E10">
         <f>SUM(E3:E9)</f>
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E25" t="s">
         <v>0</v>
       </c>
@@ -5033,7 +5017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.45">
       <c r="F26" t="s">
         <v>1</v>
       </c>
@@ -5047,7 +5031,7 @@
         <v>0.19496659</v>
       </c>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:9" x14ac:dyDescent="0.45">
       <c r="F27" t="s">
         <v>2</v>
       </c>
@@ -5061,7 +5045,7 @@
         <v>0.19068710999999999</v>
       </c>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:9" x14ac:dyDescent="0.45">
       <c r="F28" t="s">
         <v>3</v>
       </c>
@@ -5075,7 +5059,7 @@
         <v>0.17808113</v>
       </c>
     </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:9" x14ac:dyDescent="0.45">
       <c r="F29" t="s">
         <v>4</v>
       </c>
@@ -5089,7 +5073,7 @@
         <v>0.18689708999999999</v>
       </c>
     </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:9" x14ac:dyDescent="0.45">
       <c r="F30" t="s">
         <v>5</v>
       </c>
@@ -5103,7 +5087,7 @@
         <v>0.16795715999999999</v>
       </c>
     </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:9" x14ac:dyDescent="0.45">
       <c r="F31" t="s">
         <v>6</v>
       </c>
@@ -5117,7 +5101,7 @@
         <v>0.16849536000000001</v>
       </c>
     </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:9" x14ac:dyDescent="0.45">
       <c r="F32" t="s">
         <v>7</v>
       </c>
@@ -5131,7 +5115,7 @@
         <v>9.3830570000000002E-2</v>
       </c>
     </row>
-    <row r="46" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E46" t="s">
         <v>0</v>
       </c>
@@ -5145,7 +5129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:9" x14ac:dyDescent="0.45">
       <c r="F47" t="s">
         <v>1</v>
       </c>
@@ -5159,7 +5143,7 @@
         <v>0.1798006</v>
       </c>
     </row>
-    <row r="48" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:9" x14ac:dyDescent="0.45">
       <c r="F48" t="s">
         <v>2</v>
       </c>
@@ -5173,7 +5157,7 @@
         <v>0.17552880000000001</v>
       </c>
     </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F49" t="s">
         <v>3</v>
       </c>
@@ -5187,7 +5171,7 @@
         <v>0.1484538</v>
       </c>
     </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F50" t="s">
         <v>4</v>
       </c>
@@ -5201,7 +5185,7 @@
         <v>0.16155720000000001</v>
       </c>
     </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F51" t="s">
         <v>5</v>
       </c>
@@ -5215,7 +5199,7 @@
         <v>0.14916969999999999</v>
       </c>
     </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F52" t="s">
         <v>6</v>
       </c>
@@ -5229,7 +5213,7 @@
         <v>0.1369717</v>
       </c>
     </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F53" t="s">
         <v>7</v>
       </c>
